--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>记录时间</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>弟弟</t>
+  </si>
+  <si>
+    <t>银行</t>
   </si>
   <si>
     <t>杨标</t>
@@ -1067,8 +1070,8 @@
   <sheetPr/>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1186,11 +1189,11 @@
         <v>233468.91</v>
       </c>
       <c r="G2" s="2">
-        <v>141386.55</v>
+        <v>143239.88</v>
       </c>
       <c r="H2" s="2">
         <f>F2-G2</f>
-        <v>92082.3599999999</v>
+        <v>90229.03</v>
       </c>
       <c r="I2" s="2">
         <v>3382.11</v>
@@ -1228,10 +1231,10 @@
       </c>
       <c r="S2" s="2">
         <f>H2+O2*P2</f>
-        <v>285220.769269</v>
+        <v>283367.439269</v>
       </c>
       <c r="T2" s="2">
-        <v>736500</v>
+        <v>936500</v>
       </c>
       <c r="U2" s="2">
         <v>20100</v>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="W2" s="2">
         <f>V2-T2+U2</f>
-        <v>1017300.638566</v>
+        <v>817300.638566</v>
       </c>
     </row>
     <row r="3" spans="2:23">
@@ -1254,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F41" si="0">C3-B3</f>
+        <f t="shared" ref="F3:F44" si="0">C3-B3</f>
         <v>-1282868.28</v>
       </c>
       <c r="H3" s="2">
@@ -3282,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <f>C42-B42</f>
+        <f t="shared" si="0"/>
         <v>-1282868.28</v>
       </c>
       <c r="H42" s="2">
@@ -3334,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <f>C43-B43</f>
+        <f t="shared" si="0"/>
         <v>-1282868.28</v>
       </c>
       <c r="H43" s="2">
@@ -3386,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2">
-        <f>C44-B44</f>
+        <f t="shared" si="0"/>
         <v>-1282868.28</v>
       </c>
       <c r="H44" s="2">
@@ -3439,21 +3442,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.75" style="2"/>
     <col min="4" max="4" width="12.625" style="2"/>
-    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
+    <col min="5" max="6" width="14.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3469,8 +3472,11 @@
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>45838</v>
       </c>
@@ -3484,6 +3490,9 @@
         <v>-52000</v>
       </c>
       <c r="E2" s="2">
+        <v>-200000</v>
+      </c>
+      <c r="F2" s="2">
         <v>20100</v>
       </c>
     </row>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="投资" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
   <sheetPr/>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3442,13 +3442,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.75" style="2"/>
@@ -3493,6 +3493,26 @@
         <v>-200000</v>
       </c>
       <c r="F2" s="2">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-220000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-464500</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-52000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-300000</v>
+      </c>
+      <c r="F3" s="2">
         <v>20100</v>
       </c>
     </row>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="投资" sheetId="1" r:id="rId1"/>
@@ -811,13 +811,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1070,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1248,21 +1241,24 @@
         <v>817300.638566</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="1:23">
+      <c r="A3" s="1">
+        <v>45869</v>
+      </c>
       <c r="B3" s="2">
         <f>B2+D3</f>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F44" si="0">C3-B3</f>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H3" s="2">
         <f>F3-G3</f>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I3" s="2">
         <f>I2+K3</f>
@@ -1289,7 +1285,7 @@
       </c>
       <c r="S3" s="2">
         <f t="shared" ref="S3:S44" si="5">H3+O3*P3</f>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" ref="V3:V44" si="6">C3+J3*P3</f>
@@ -1303,18 +1299,18 @@
     <row r="4" spans="2:23">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B44" si="8">B3+D4</f>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ref="H3:H44" si="9">F4-G4</f>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ref="I4:I44" si="10">I3+K4</f>
@@ -1341,7 +1337,7 @@
       </c>
       <c r="S4" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="6"/>
@@ -1355,18 +1351,18 @@
     <row r="5" spans="2:23">
       <c r="B5" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="10"/>
@@ -1393,7 +1389,7 @@
       </c>
       <c r="S5" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="6"/>
@@ -1407,18 +1403,18 @@
     <row r="6" spans="2:23">
       <c r="B6" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="10"/>
@@ -1445,7 +1441,7 @@
       </c>
       <c r="S6" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="6"/>
@@ -1459,18 +1455,18 @@
     <row r="7" spans="2:23">
       <c r="B7" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="10"/>
@@ -1497,7 +1493,7 @@
       </c>
       <c r="S7" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="6"/>
@@ -1511,18 +1507,18 @@
     <row r="8" spans="2:23">
       <c r="B8" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="10"/>
@@ -1549,7 +1545,7 @@
       </c>
       <c r="S8" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="6"/>
@@ -1563,18 +1559,18 @@
     <row r="9" spans="2:23">
       <c r="B9" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="10"/>
@@ -1601,7 +1597,7 @@
       </c>
       <c r="S9" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" si="6"/>
@@ -1615,18 +1611,18 @@
     <row r="10" spans="2:23">
       <c r="B10" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="10"/>
@@ -1653,7 +1649,7 @@
       </c>
       <c r="S10" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="6"/>
@@ -1667,18 +1663,18 @@
     <row r="11" spans="2:23">
       <c r="B11" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="10"/>
@@ -1705,7 +1701,7 @@
       </c>
       <c r="S11" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" si="6"/>
@@ -1719,18 +1715,18 @@
     <row r="12" spans="2:23">
       <c r="B12" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="10"/>
@@ -1757,7 +1753,7 @@
       </c>
       <c r="S12" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" si="6"/>
@@ -1771,18 +1767,18 @@
     <row r="13" spans="2:23">
       <c r="B13" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="10"/>
@@ -1809,7 +1805,7 @@
       </c>
       <c r="S13" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" si="6"/>
@@ -1823,18 +1819,18 @@
     <row r="14" spans="2:23">
       <c r="B14" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="10"/>
@@ -1861,7 +1857,7 @@
       </c>
       <c r="S14" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" si="6"/>
@@ -1875,18 +1871,18 @@
     <row r="15" spans="2:23">
       <c r="B15" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="10"/>
@@ -1913,7 +1909,7 @@
       </c>
       <c r="S15" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" si="6"/>
@@ -1927,18 +1923,18 @@
     <row r="16" spans="2:23">
       <c r="B16" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="10"/>
@@ -1965,7 +1961,7 @@
       </c>
       <c r="S16" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="6"/>
@@ -1979,18 +1975,18 @@
     <row r="17" spans="2:23">
       <c r="B17" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="10"/>
@@ -2017,7 +2013,7 @@
       </c>
       <c r="S17" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" si="6"/>
@@ -2031,18 +2027,18 @@
     <row r="18" spans="2:23">
       <c r="B18" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="10"/>
@@ -2069,7 +2065,7 @@
       </c>
       <c r="S18" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" si="6"/>
@@ -2083,18 +2079,18 @@
     <row r="19" spans="2:23">
       <c r="B19" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="10"/>
@@ -2121,7 +2117,7 @@
       </c>
       <c r="S19" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" si="6"/>
@@ -2135,18 +2131,18 @@
     <row r="20" spans="2:23">
       <c r="B20" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="10"/>
@@ -2173,7 +2169,7 @@
       </c>
       <c r="S20" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V20" s="2">
         <f t="shared" si="6"/>
@@ -2187,18 +2183,18 @@
     <row r="21" spans="2:23">
       <c r="B21" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="10"/>
@@ -2225,7 +2221,7 @@
       </c>
       <c r="S21" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V21" s="2">
         <f t="shared" si="6"/>
@@ -2239,18 +2235,18 @@
     <row r="22" spans="2:23">
       <c r="B22" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="10"/>
@@ -2277,7 +2273,7 @@
       </c>
       <c r="S22" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V22" s="2">
         <f t="shared" si="6"/>
@@ -2291,18 +2287,18 @@
     <row r="23" spans="2:23">
       <c r="B23" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="10"/>
@@ -2329,7 +2325,7 @@
       </c>
       <c r="S23" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="6"/>
@@ -2343,18 +2339,18 @@
     <row r="24" spans="2:23">
       <c r="B24" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="10"/>
@@ -2381,7 +2377,7 @@
       </c>
       <c r="S24" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="6"/>
@@ -2395,18 +2391,18 @@
     <row r="25" spans="2:23">
       <c r="B25" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="10"/>
@@ -2433,7 +2429,7 @@
       </c>
       <c r="S25" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" si="6"/>
@@ -2447,18 +2443,18 @@
     <row r="26" spans="2:23">
       <c r="B26" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="10"/>
@@ -2485,7 +2481,7 @@
       </c>
       <c r="S26" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="6"/>
@@ -2499,18 +2495,18 @@
     <row r="27" spans="2:23">
       <c r="B27" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="10"/>
@@ -2537,7 +2533,7 @@
       </c>
       <c r="S27" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" si="6"/>
@@ -2551,18 +2547,18 @@
     <row r="28" spans="2:23">
       <c r="B28" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="10"/>
@@ -2589,7 +2585,7 @@
       </c>
       <c r="S28" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="6"/>
@@ -2603,18 +2599,18 @@
     <row r="29" spans="2:23">
       <c r="B29" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="10"/>
@@ -2641,7 +2637,7 @@
       </c>
       <c r="S29" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" si="6"/>
@@ -2655,18 +2651,18 @@
     <row r="30" spans="2:23">
       <c r="B30" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="10"/>
@@ -2693,7 +2689,7 @@
       </c>
       <c r="S30" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" si="6"/>
@@ -2707,18 +2703,18 @@
     <row r="31" spans="2:23">
       <c r="B31" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="10"/>
@@ -2745,7 +2741,7 @@
       </c>
       <c r="S31" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V31" s="2">
         <f t="shared" si="6"/>
@@ -2759,18 +2755,18 @@
     <row r="32" spans="2:23">
       <c r="B32" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="10"/>
@@ -2797,7 +2793,7 @@
       </c>
       <c r="S32" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V32" s="2">
         <f t="shared" si="6"/>
@@ -2811,18 +2807,18 @@
     <row r="33" spans="2:23">
       <c r="B33" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="10"/>
@@ -2849,7 +2845,7 @@
       </c>
       <c r="S33" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V33" s="2">
         <f t="shared" si="6"/>
@@ -2863,18 +2859,18 @@
     <row r="34" spans="2:23">
       <c r="B34" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="10"/>
@@ -2901,7 +2897,7 @@
       </c>
       <c r="S34" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V34" s="2">
         <f t="shared" si="6"/>
@@ -2915,18 +2911,18 @@
     <row r="35" spans="2:23">
       <c r="B35" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="10"/>
@@ -2953,7 +2949,7 @@
       </c>
       <c r="S35" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" si="6"/>
@@ -2967,18 +2963,18 @@
     <row r="36" spans="2:23">
       <c r="B36" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="10"/>
@@ -3005,7 +3001,7 @@
       </c>
       <c r="S36" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V36" s="2">
         <f t="shared" si="6"/>
@@ -3019,18 +3015,18 @@
     <row r="37" spans="2:23">
       <c r="B37" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="10"/>
@@ -3057,7 +3053,7 @@
       </c>
       <c r="S37" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V37" s="2">
         <f t="shared" si="6"/>
@@ -3071,18 +3067,18 @@
     <row r="38" spans="2:23">
       <c r="B38" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="10"/>
@@ -3109,7 +3105,7 @@
       </c>
       <c r="S38" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V38" s="2">
         <f t="shared" si="6"/>
@@ -3123,18 +3119,18 @@
     <row r="39" spans="2:23">
       <c r="B39" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="10"/>
@@ -3161,7 +3157,7 @@
       </c>
       <c r="S39" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V39" s="2">
         <f t="shared" si="6"/>
@@ -3175,18 +3171,18 @@
     <row r="40" spans="2:23">
       <c r="B40" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="10"/>
@@ -3213,7 +3209,7 @@
       </c>
       <c r="S40" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V40" s="2">
         <f t="shared" si="6"/>
@@ -3227,18 +3223,18 @@
     <row r="41" spans="2:23">
       <c r="B41" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="10"/>
@@ -3265,7 +3261,7 @@
       </c>
       <c r="S41" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V41" s="2">
         <f t="shared" si="6"/>
@@ -3279,18 +3275,18 @@
     <row r="42" spans="2:23">
       <c r="B42" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="10"/>
@@ -3317,7 +3313,7 @@
       </c>
       <c r="S42" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" si="6"/>
@@ -3331,18 +3327,18 @@
     <row r="43" spans="2:23">
       <c r="B43" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="10"/>
@@ -3369,7 +3365,7 @@
       </c>
       <c r="S43" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" si="6"/>
@@ -3383,18 +3379,18 @@
     <row r="44" spans="2:23">
       <c r="B44" s="2">
         <f t="shared" si="8"/>
-        <v>1282868.28</v>
+        <v>1382868.28</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="9"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="10"/>
@@ -3421,7 +3417,7 @@
       </c>
       <c r="S44" s="2">
         <f t="shared" si="5"/>
-        <v>-1282868.28</v>
+        <v>-1382868.28</v>
       </c>
       <c r="V44" s="2">
         <f t="shared" si="6"/>
@@ -3444,7 +3440,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1063,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1256,9 +1256,12 @@
         <f t="shared" ref="F3:F44" si="0">C3-B3</f>
         <v>-1382868.28</v>
       </c>
+      <c r="G3" s="2">
+        <v>147503.65</v>
+      </c>
       <c r="H3" s="2">
         <f>F3-G3</f>
-        <v>-1382868.28</v>
+        <v>-1530371.93</v>
       </c>
       <c r="I3" s="2">
         <f>I2+K3</f>
@@ -1275,17 +1278,26 @@
         <f t="shared" ref="O3:O44" si="2">M3-N3</f>
         <v>-3382.11</v>
       </c>
+      <c r="P3" s="3">
+        <v>7.2002</v>
+      </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q44" si="3">J3*P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R44" si="4">O3*P3</f>
-        <v>0</v>
+        <v>-24351.868422</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" ref="S3:S44" si="5">H3+O3*P3</f>
-        <v>-1382868.28</v>
+        <v>-1554723.798422</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1036500</v>
+      </c>
+      <c r="U3" s="2">
+        <v>20100</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" ref="V3:V44" si="6">C3+J3*P3</f>
@@ -1293,7 +1305,7 @@
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W44" si="7">V3-T3+U3</f>
-        <v>0</v>
+        <v>-1016400</v>
       </c>
     </row>
     <row r="4" spans="2:23">

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>记录时间</t>
   </si>
@@ -43,16 +43,10 @@
     <t>A股资产变动</t>
   </si>
   <si>
-    <t>A股融资</t>
-  </si>
-  <si>
     <t>A股盈利</t>
   </si>
   <si>
     <t>A股融资利息</t>
-  </si>
-  <si>
-    <t>A股净盈利</t>
   </si>
   <si>
     <t>美股本金</t>
@@ -64,16 +58,10 @@
     <t>美股资产变动</t>
   </si>
   <si>
-    <t>美股融资</t>
-  </si>
-  <si>
     <t>美股盈利</t>
   </si>
   <si>
     <t>美股融资利息</t>
-  </si>
-  <si>
-    <t>美股净盈利</t>
   </si>
   <si>
     <t>美元汇率</t>
@@ -98,6 +86,9 @@
   </si>
   <si>
     <t>净资产</t>
+  </si>
+  <si>
+    <t>当月盈利</t>
   </si>
   <si>
     <t>记录日期</t>
@@ -1061,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1073,24 +1064,20 @@
     <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="16" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="10" width="15.25" style="2" customWidth="1"/>
-    <col min="11" max="12" width="13.875" style="2" customWidth="1"/>
-    <col min="13" max="14" width="15.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15" style="2" customWidth="1"/>
-    <col min="20" max="22" width="16.125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="15.375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9" style="4"/>
+    <col min="5" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="8" width="15.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="15.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15" style="2" customWidth="1"/>
+    <col min="16" max="18" width="16.125" style="2" customWidth="1"/>
+    <col min="19" max="20" width="15.375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1111,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1136,7 +1123,7 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1151,17 +1138,8 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>45838</v>
       </c>
@@ -1175,2268 +1153,2098 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>633111.54</v>
-      </c>
-      <c r="F2" s="2">
         <f>C2-B2</f>
         <v>233468.91</v>
       </c>
+      <c r="F2" s="2">
+        <v>143239.88</v>
+      </c>
       <c r="G2" s="2">
-        <v>143239.88</v>
+        <v>3382.11</v>
       </c>
       <c r="H2" s="2">
-        <f>F2-G2</f>
-        <v>90229.03</v>
+        <v>30346.58</v>
       </c>
       <c r="I2" s="2">
-        <v>3382.11</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>30346.58</v>
+        <f>H2-G2</f>
+        <v>26964.47</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
-        <v>0</v>
+      <c r="L2" s="3">
+        <v>7.1627</v>
       </c>
       <c r="M2" s="2">
-        <f>J2-I2</f>
-        <v>26964.47</v>
+        <f>H2*L2</f>
+        <v>217363.448566</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <f>J2*L2</f>
+        <v>193138.409269</v>
       </c>
       <c r="O2" s="2">
-        <f>M2-N2</f>
-        <v>26964.47</v>
-      </c>
-      <c r="P2" s="3">
-        <v>7.1627</v>
+        <f>N2+E2</f>
+        <v>426607.319269</v>
+      </c>
+      <c r="P2" s="2">
+        <v>936500</v>
       </c>
       <c r="Q2" s="2">
-        <f>J2*P2</f>
-        <v>217363.448566</v>
+        <v>20100</v>
       </c>
       <c r="R2" s="2">
-        <f>O2*P2</f>
-        <v>193138.409269</v>
+        <f>C2+H2*L2</f>
+        <v>1733700.638566</v>
       </c>
       <c r="S2" s="2">
-        <f>H2+O2*P2</f>
-        <v>283367.439269</v>
+        <f>R2-P2+Q2</f>
+        <v>817300.638566</v>
       </c>
       <c r="T2" s="2">
-        <v>936500</v>
-      </c>
-      <c r="U2" s="2">
-        <v>20100</v>
-      </c>
-      <c r="V2" s="2">
-        <f>C2+J2*P2</f>
-        <v>1733700.638566</v>
-      </c>
-      <c r="W2" s="2">
-        <f>V2-T2+U2</f>
-        <v>817300.638566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>45869</v>
       </c>
       <c r="B3" s="2">
         <f>B2+D3</f>
-        <v>1382868.28</v>
+        <v>1385184.94</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1780179.91</v>
       </c>
       <c r="D3" s="2">
-        <v>100000</v>
+        <v>102316.66</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E44" si="0">C3-B3</f>
+        <v>394994.97</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F44" si="0">C3-B3</f>
-        <v>-1382868.28</v>
+        <v>147503.65</v>
       </c>
       <c r="G3" s="2">
-        <v>147503.65</v>
+        <f>G2+I3</f>
+        <v>3382.11</v>
       </c>
       <c r="H3" s="2">
-        <f>F3-G3</f>
-        <v>-1530371.93</v>
+        <v>29669.82</v>
       </c>
       <c r="I3" s="2">
-        <f>I2+K3</f>
-        <v>3382.11</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J44" si="1">H3-G3</f>
+        <v>26287.71</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="L3" s="3">
+        <v>7.2002</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M44" si="1">J3-I3</f>
-        <v>-3382.11</v>
+        <f t="shared" ref="M3:M44" si="2">H3*L3</f>
+        <v>213628.637964</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N44" si="3">J3*L3</f>
+        <v>189276.769542</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O44" si="2">M3-N3</f>
-        <v>-3382.11</v>
-      </c>
-      <c r="P3" s="3">
-        <v>7.2002</v>
+        <f t="shared" ref="O3:O44" si="4">N3+E3</f>
+        <v>584271.739542</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1036500</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q44" si="3">J3*P3</f>
-        <v>0</v>
+        <v>20200</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R44" si="4">O3*P3</f>
-        <v>-24351.868422</v>
+        <f t="shared" ref="R3:R44" si="5">C3+H3*L3</f>
+        <v>1993808.547964</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S44" si="5">H3+O3*P3</f>
-        <v>-1554723.798422</v>
+        <f t="shared" ref="S3:S44" si="6">R3-P3+Q3</f>
+        <v>977508.547964</v>
       </c>
       <c r="T3" s="2">
-        <v>1036500</v>
-      </c>
-      <c r="U3" s="2">
-        <v>20100</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" ref="V3:V44" si="6">C3+J3*P3</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <f t="shared" ref="W3:W44" si="7">V3-T3+U3</f>
-        <v>-1016400</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23">
+        <f>S3-S2</f>
+        <v>160207.909398</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B44" si="8">B3+D4</f>
-        <v>1382868.28</v>
+        <f t="shared" ref="B4:B44" si="7">B3+D4</f>
+        <v>1385184.94</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H3:H44" si="9">F4-G4</f>
-        <v>-1382868.28</v>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G44" si="8">G3+I4</f>
+        <v>3382.11</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I44" si="10">I3+K4</f>
-        <v>3382.11</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V4" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T44" si="9">S4-S3</f>
+        <v>-977508.547964</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
       <c r="B6" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V7" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V8" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
       <c r="B9" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
       <c r="B10" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V10" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
       <c r="B11" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
       <c r="B12" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V12" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
       <c r="B13" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V13" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
       <c r="B14" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V14" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
       <c r="B15" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V15" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
       <c r="B16" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V16" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
       <c r="B17" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V17" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
       <c r="B18" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V18" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V19" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V20" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V21" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
       <c r="B22" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V22" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
       <c r="B23" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q23" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V23" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q24" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V24" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q25" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V25" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
       <c r="B26" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q26" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V26" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
       <c r="B27" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q27" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V27" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
       <c r="B28" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V28" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
       <c r="B29" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V29" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
       <c r="B30" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q30" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V30" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
       <c r="B31" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q31" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V31" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
       <c r="B32" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="F32" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V32" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
       <c r="B33" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q33" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V33" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
       <c r="B34" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V34" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
       <c r="B35" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V35" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
       <c r="B36" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q36" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V36" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
       <c r="B37" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="F37" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q37" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V37" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
       <c r="B38" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="F38" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q38" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V38" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
       <c r="B39" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q39" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V39" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
       <c r="B40" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="F40" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q40" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V40" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
       <c r="B41" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="F41" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q41" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V41" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
       <c r="B42" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="F42" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q42" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V42" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20">
       <c r="B43" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="F43" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V43" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
       <c r="B44" s="2">
-        <f t="shared" si="8"/>
-        <v>1382868.28</v>
+        <f t="shared" si="7"/>
+        <v>1385184.94</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
-      <c r="F44" s="2">
-        <f t="shared" si="0"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="9"/>
-        <v>-1382868.28</v>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>-1385184.94</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="8"/>
+        <v>3382.11</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="10"/>
-        <v>3382.11</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>-3382.11</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="2"/>
-        <v>-3382.11</v>
-      </c>
-      <c r="Q44" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-1385184.94</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="5"/>
-        <v>-1382868.28</v>
-      </c>
-      <c r="V44" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3466,22 +3274,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24165" windowHeight="9945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="投资" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -3258,16 +3258,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.75" style="2"/>
+    <col min="2" max="2" width="13.75" style="2"/>
+    <col min="3" max="3" width="16" style="2"/>
     <col min="4" max="4" width="12.625" style="2"/>
     <col min="5" max="6" width="14.25" style="2" customWidth="1"/>
   </cols>
@@ -3329,6 +3330,26 @@
         <v>-300000</v>
       </c>
       <c r="F3" s="2">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-220000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-2464500</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-52000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-300000</v>
+      </c>
+      <c r="F4" s="2">
         <v>20100</v>
       </c>
     </row>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24165" windowHeight="9945" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="投资" sheetId="1" r:id="rId1"/>
@@ -3261,7 +3261,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3341,7 +3341,7 @@
         <v>-220000</v>
       </c>
       <c r="C4" s="2">
-        <v>-2464500</v>
+        <v>-2284500</v>
       </c>
       <c r="D4" s="2">
         <v>-52000</v>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1054,7 +1054,7 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -3261,7 +3261,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3341,7 +3341,7 @@
         <v>-220000</v>
       </c>
       <c r="C4" s="2">
-        <v>-2284500</v>
+        <v>-2407500</v>
       </c>
       <c r="D4" s="2">
         <v>-52000</v>
@@ -3350,7 +3350,7 @@
         <v>-300000</v>
       </c>
       <c r="F4" s="2">
-        <v>20100</v>
+        <v>20300</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="投资" sheetId="1" r:id="rId1"/>
@@ -1054,8 +1054,8 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1280,65 +1280,89 @@
         <v>160207.909398</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>45898</v>
+      </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B44" si="7">B3+D4</f>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4080300</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1943913.22</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>751201.84</v>
+      </c>
+      <c r="F4" s="2">
+        <v>147990.18</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G44" si="8">G3+I4</f>
         <v>3382.11</v>
       </c>
+      <c r="H4" s="2">
+        <v>31659.9</v>
+      </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <v>28277.79</v>
+      </c>
+      <c r="K4" s="2">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3">
+        <v>7.1593</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>226662.72207</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>202449.181947</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>953651.021947</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2979500</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>20300</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4306962.72207</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1347762.72207</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" ref="T4:T44" si="9">S4-S3</f>
-        <v>-977508.547964</v>
+        <v>370254.174106</v>
       </c>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="8"/>
@@ -1361,7 +1385,7 @@
       </c>
       <c r="O5" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="5"/>
@@ -1373,20 +1397,20 @@
       </c>
       <c r="T5" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1347762.72207</v>
       </c>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="8"/>
@@ -1409,7 +1433,7 @@
       </c>
       <c r="O6" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="5"/>
@@ -1427,14 +1451,14 @@
     <row r="7" spans="2:20">
       <c r="B7" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="8"/>
@@ -1457,7 +1481,7 @@
       </c>
       <c r="O7" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="5"/>
@@ -1475,14 +1499,14 @@
     <row r="8" spans="2:20">
       <c r="B8" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="8"/>
@@ -1505,7 +1529,7 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="5"/>
@@ -1523,14 +1547,14 @@
     <row r="9" spans="2:20">
       <c r="B9" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="8"/>
@@ -1553,7 +1577,7 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="5"/>
@@ -1571,14 +1595,14 @@
     <row r="10" spans="2:20">
       <c r="B10" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
@@ -1601,7 +1625,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="5"/>
@@ -1619,14 +1643,14 @@
     <row r="11" spans="2:20">
       <c r="B11" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="8"/>
@@ -1649,7 +1673,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="5"/>
@@ -1667,14 +1691,14 @@
     <row r="12" spans="2:20">
       <c r="B12" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="8"/>
@@ -1697,7 +1721,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="5"/>
@@ -1715,14 +1739,14 @@
     <row r="13" spans="2:20">
       <c r="B13" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="8"/>
@@ -1745,7 +1769,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="5"/>
@@ -1763,14 +1787,14 @@
     <row r="14" spans="2:20">
       <c r="B14" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="8"/>
@@ -1793,7 +1817,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="5"/>
@@ -1811,14 +1835,14 @@
     <row r="15" spans="2:20">
       <c r="B15" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="8"/>
@@ -1841,7 +1865,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="5"/>
@@ -1859,14 +1883,14 @@
     <row r="16" spans="2:20">
       <c r="B16" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="8"/>
@@ -1889,7 +1913,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="5"/>
@@ -1907,14 +1931,14 @@
     <row r="17" spans="2:20">
       <c r="B17" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="8"/>
@@ -1937,7 +1961,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="5"/>
@@ -1955,14 +1979,14 @@
     <row r="18" spans="2:20">
       <c r="B18" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="8"/>
@@ -1985,7 +2009,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="5"/>
@@ -2003,14 +2027,14 @@
     <row r="19" spans="2:20">
       <c r="B19" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="8"/>
@@ -2033,7 +2057,7 @@
       </c>
       <c r="O19" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="5"/>
@@ -2051,14 +2075,14 @@
     <row r="20" spans="2:20">
       <c r="B20" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="8"/>
@@ -2081,7 +2105,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="5"/>
@@ -2099,14 +2123,14 @@
     <row r="21" spans="2:20">
       <c r="B21" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="8"/>
@@ -2129,7 +2153,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
@@ -2147,14 +2171,14 @@
     <row r="22" spans="2:20">
       <c r="B22" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="8"/>
@@ -2177,7 +2201,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="5"/>
@@ -2195,14 +2219,14 @@
     <row r="23" spans="2:20">
       <c r="B23" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
@@ -2225,7 +2249,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="5"/>
@@ -2243,14 +2267,14 @@
     <row r="24" spans="2:20">
       <c r="B24" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="8"/>
@@ -2273,7 +2297,7 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="5"/>
@@ -2291,14 +2315,14 @@
     <row r="25" spans="2:20">
       <c r="B25" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="8"/>
@@ -2321,7 +2345,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
@@ -2339,14 +2363,14 @@
     <row r="26" spans="2:20">
       <c r="B26" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="8"/>
@@ -2369,7 +2393,7 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="5"/>
@@ -2387,14 +2411,14 @@
     <row r="27" spans="2:20">
       <c r="B27" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="8"/>
@@ -2417,7 +2441,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="5"/>
@@ -2435,14 +2459,14 @@
     <row r="28" spans="2:20">
       <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="8"/>
@@ -2465,7 +2489,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="5"/>
@@ -2483,14 +2507,14 @@
     <row r="29" spans="2:20">
       <c r="B29" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="8"/>
@@ -2513,7 +2537,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="5"/>
@@ -2531,14 +2555,14 @@
     <row r="30" spans="2:20">
       <c r="B30" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
@@ -2561,7 +2585,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="5"/>
@@ -2579,14 +2603,14 @@
     <row r="31" spans="2:20">
       <c r="B31" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="8"/>
@@ -2609,7 +2633,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="5"/>
@@ -2627,14 +2651,14 @@
     <row r="32" spans="2:20">
       <c r="B32" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="8"/>
@@ -2657,7 +2681,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="5"/>
@@ -2675,14 +2699,14 @@
     <row r="33" spans="2:20">
       <c r="B33" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="8"/>
@@ -2705,7 +2729,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="5"/>
@@ -2723,14 +2747,14 @@
     <row r="34" spans="2:20">
       <c r="B34" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="8"/>
@@ -2753,7 +2777,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="5"/>
@@ -2771,14 +2795,14 @@
     <row r="35" spans="2:20">
       <c r="B35" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
@@ -2801,7 +2825,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="5"/>
@@ -2819,14 +2843,14 @@
     <row r="36" spans="2:20">
       <c r="B36" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
@@ -2849,7 +2873,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="5"/>
@@ -2867,14 +2891,14 @@
     <row r="37" spans="2:20">
       <c r="B37" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
@@ -2897,7 +2921,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="5"/>
@@ -2915,14 +2939,14 @@
     <row r="38" spans="2:20">
       <c r="B38" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
@@ -2945,7 +2969,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="5"/>
@@ -2963,14 +2987,14 @@
     <row r="39" spans="2:20">
       <c r="B39" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="8"/>
@@ -2993,7 +3017,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="5"/>
@@ -3011,14 +3035,14 @@
     <row r="40" spans="2:20">
       <c r="B40" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="8"/>
@@ -3041,7 +3065,7 @@
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="5"/>
@@ -3059,14 +3083,14 @@
     <row r="41" spans="2:20">
       <c r="B41" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="8"/>
@@ -3089,7 +3113,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="5"/>
@@ -3107,14 +3131,14 @@
     <row r="42" spans="2:20">
       <c r="B42" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="8"/>
@@ -3137,7 +3161,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="5"/>
@@ -3155,14 +3179,14 @@
     <row r="43" spans="2:20">
       <c r="B43" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="8"/>
@@ -3185,7 +3209,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="5"/>
@@ -3203,14 +3227,14 @@
     <row r="44" spans="2:20">
       <c r="B44" s="2">
         <f t="shared" si="7"/>
-        <v>1385184.94</v>
+        <v>3329098.16</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="8"/>
@@ -3233,7 +3257,7 @@
       </c>
       <c r="O44" s="2">
         <f t="shared" si="4"/>
-        <v>-1385184.94</v>
+        <v>-3329098.16</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="5"/>
@@ -3260,8 +3284,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1289,14 +1289,14 @@
         <v>3329098.16</v>
       </c>
       <c r="C4" s="2">
-        <v>4080300</v>
+        <v>4133274.54</v>
       </c>
       <c r="D4" s="2">
         <v>1943913.22</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>751201.84</v>
+        <v>804176.38</v>
       </c>
       <c r="F4" s="2">
         <v>147990.18</v>
@@ -1306,32 +1306,32 @@
         <v>3382.11</v>
       </c>
       <c r="H4" s="2">
-        <v>31659.9</v>
+        <v>31723.7</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="1"/>
-        <v>28277.79</v>
+        <v>28341.59</v>
       </c>
       <c r="K4" s="2">
         <v>11</v>
       </c>
       <c r="L4" s="3">
-        <v>7.1593</v>
+        <v>7.1295</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="2"/>
-        <v>226662.72207</v>
+        <v>226174.11915</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="3"/>
-        <v>202449.181947</v>
+        <v>202061.365905</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="4"/>
-        <v>953651.021947</v>
+        <v>1006237.745905</v>
       </c>
       <c r="P4" s="2">
         <v>2979500</v>
@@ -1341,15 +1341,15 @@
       </c>
       <c r="R4" s="2">
         <f t="shared" si="5"/>
-        <v>4306962.72207</v>
+        <v>4359448.65915</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="6"/>
-        <v>1347762.72207</v>
+        <v>1400248.65915</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" ref="T4:T44" si="9">S4-S3</f>
-        <v>370254.174106</v>
+        <v>422740.111186</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="T5" s="2">
         <f t="shared" si="9"/>
-        <v>-1347762.72207</v>
+        <v>-1400248.65915</v>
       </c>
     </row>
     <row r="6" spans="2:20">

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1054,8 +1054,8 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1352,65 +1352,89 @@
         <v>422740.111186</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
+        <v>45930</v>
+      </c>
       <c r="B5" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4342291.87</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>771.56</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>1012422.15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>148761.74</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="8"/>
         <v>3382.11</v>
       </c>
+      <c r="H5" s="2">
+        <v>33344.49</v>
+      </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <v>29962.38</v>
+      </c>
+      <c r="K5" s="2">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3">
+        <v>7.1296</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>237732.875904</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>213619.784448</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>1226041.934448</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2979500</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>20300</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4580024.745904</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1620824.745904</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="9"/>
-        <v>-1400248.65915</v>
+        <v>220576.086754001</v>
       </c>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="8"/>
@@ -1433,7 +1457,7 @@
       </c>
       <c r="O6" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="5"/>
@@ -1445,20 +1469,20 @@
       </c>
       <c r="T6" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1620824.745904</v>
       </c>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="8"/>
@@ -1481,7 +1505,7 @@
       </c>
       <c r="O7" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="5"/>
@@ -1499,14 +1523,14 @@
     <row r="8" spans="2:20">
       <c r="B8" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="8"/>
@@ -1529,7 +1553,7 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="5"/>
@@ -1547,14 +1571,14 @@
     <row r="9" spans="2:20">
       <c r="B9" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="8"/>
@@ -1577,7 +1601,7 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="5"/>
@@ -1595,14 +1619,14 @@
     <row r="10" spans="2:20">
       <c r="B10" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
@@ -1625,7 +1649,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="5"/>
@@ -1643,14 +1667,14 @@
     <row r="11" spans="2:20">
       <c r="B11" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="8"/>
@@ -1673,7 +1697,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="5"/>
@@ -1691,14 +1715,14 @@
     <row r="12" spans="2:20">
       <c r="B12" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="8"/>
@@ -1721,7 +1745,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="5"/>
@@ -1739,14 +1763,14 @@
     <row r="13" spans="2:20">
       <c r="B13" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="8"/>
@@ -1769,7 +1793,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="5"/>
@@ -1787,14 +1811,14 @@
     <row r="14" spans="2:20">
       <c r="B14" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="8"/>
@@ -1817,7 +1841,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="5"/>
@@ -1835,14 +1859,14 @@
     <row r="15" spans="2:20">
       <c r="B15" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="8"/>
@@ -1865,7 +1889,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="5"/>
@@ -1883,14 +1907,14 @@
     <row r="16" spans="2:20">
       <c r="B16" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="8"/>
@@ -1913,7 +1937,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="5"/>
@@ -1931,14 +1955,14 @@
     <row r="17" spans="2:20">
       <c r="B17" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="8"/>
@@ -1961,7 +1985,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="5"/>
@@ -1979,14 +2003,14 @@
     <row r="18" spans="2:20">
       <c r="B18" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="8"/>
@@ -2009,7 +2033,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="5"/>
@@ -2027,14 +2051,14 @@
     <row r="19" spans="2:20">
       <c r="B19" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="8"/>
@@ -2057,7 +2081,7 @@
       </c>
       <c r="O19" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="5"/>
@@ -2075,14 +2099,14 @@
     <row r="20" spans="2:20">
       <c r="B20" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="8"/>
@@ -2105,7 +2129,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="5"/>
@@ -2123,14 +2147,14 @@
     <row r="21" spans="2:20">
       <c r="B21" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="8"/>
@@ -2153,7 +2177,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
@@ -2171,14 +2195,14 @@
     <row r="22" spans="2:20">
       <c r="B22" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="8"/>
@@ -2201,7 +2225,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="5"/>
@@ -2219,14 +2243,14 @@
     <row r="23" spans="2:20">
       <c r="B23" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
@@ -2249,7 +2273,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="5"/>
@@ -2267,14 +2291,14 @@
     <row r="24" spans="2:20">
       <c r="B24" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="8"/>
@@ -2297,7 +2321,7 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="5"/>
@@ -2315,14 +2339,14 @@
     <row r="25" spans="2:20">
       <c r="B25" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="8"/>
@@ -2345,7 +2369,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
@@ -2363,14 +2387,14 @@
     <row r="26" spans="2:20">
       <c r="B26" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="8"/>
@@ -2393,7 +2417,7 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="5"/>
@@ -2411,14 +2435,14 @@
     <row r="27" spans="2:20">
       <c r="B27" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="8"/>
@@ -2441,7 +2465,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="5"/>
@@ -2459,14 +2483,14 @@
     <row r="28" spans="2:20">
       <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="8"/>
@@ -2489,7 +2513,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="5"/>
@@ -2507,14 +2531,14 @@
     <row r="29" spans="2:20">
       <c r="B29" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="8"/>
@@ -2537,7 +2561,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="5"/>
@@ -2555,14 +2579,14 @@
     <row r="30" spans="2:20">
       <c r="B30" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
@@ -2585,7 +2609,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="5"/>
@@ -2603,14 +2627,14 @@
     <row r="31" spans="2:20">
       <c r="B31" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="8"/>
@@ -2633,7 +2657,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="5"/>
@@ -2651,14 +2675,14 @@
     <row r="32" spans="2:20">
       <c r="B32" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="8"/>
@@ -2681,7 +2705,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="5"/>
@@ -2699,14 +2723,14 @@
     <row r="33" spans="2:20">
       <c r="B33" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="8"/>
@@ -2729,7 +2753,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="5"/>
@@ -2747,14 +2771,14 @@
     <row r="34" spans="2:20">
       <c r="B34" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="8"/>
@@ -2777,7 +2801,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="5"/>
@@ -2795,14 +2819,14 @@
     <row r="35" spans="2:20">
       <c r="B35" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
@@ -2825,7 +2849,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="5"/>
@@ -2843,14 +2867,14 @@
     <row r="36" spans="2:20">
       <c r="B36" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
@@ -2873,7 +2897,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="5"/>
@@ -2891,14 +2915,14 @@
     <row r="37" spans="2:20">
       <c r="B37" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
@@ -2921,7 +2945,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="5"/>
@@ -2939,14 +2963,14 @@
     <row r="38" spans="2:20">
       <c r="B38" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
@@ -2969,7 +2993,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="5"/>
@@ -2987,14 +3011,14 @@
     <row r="39" spans="2:20">
       <c r="B39" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="8"/>
@@ -3017,7 +3041,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="5"/>
@@ -3035,14 +3059,14 @@
     <row r="40" spans="2:20">
       <c r="B40" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="8"/>
@@ -3065,7 +3089,7 @@
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="5"/>
@@ -3083,14 +3107,14 @@
     <row r="41" spans="2:20">
       <c r="B41" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="8"/>
@@ -3113,7 +3137,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="5"/>
@@ -3131,14 +3155,14 @@
     <row r="42" spans="2:20">
       <c r="B42" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="8"/>
@@ -3161,7 +3185,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="5"/>
@@ -3179,14 +3203,14 @@
     <row r="43" spans="2:20">
       <c r="B43" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="8"/>
@@ -3209,7 +3233,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="5"/>
@@ -3227,14 +3251,14 @@
     <row r="44" spans="2:20">
       <c r="B44" s="2">
         <f t="shared" si="7"/>
-        <v>3329098.16</v>
+        <v>3329869.72</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="8"/>
@@ -3257,7 +3281,7 @@
       </c>
       <c r="O44" s="2">
         <f t="shared" si="4"/>
-        <v>-3329098.16</v>
+        <v>-3329869.72</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="5"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1361,14 +1361,14 @@
         <v>3329869.72</v>
       </c>
       <c r="C5" s="2">
-        <v>4342291.87</v>
+        <v>4344875.16</v>
       </c>
       <c r="D5" s="2">
         <v>771.56</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>1012422.15</v>
+        <v>1015005.44</v>
       </c>
       <c r="F5" s="2">
         <v>148761.74</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="O5" s="2">
         <f t="shared" si="4"/>
-        <v>1226041.934448</v>
+        <v>1228625.224448</v>
       </c>
       <c r="P5" s="2">
         <v>2979500</v>
@@ -1413,15 +1413,15 @@
       </c>
       <c r="R5" s="2">
         <f t="shared" si="5"/>
-        <v>4580024.745904</v>
+        <v>4582608.035904</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="6"/>
-        <v>1620824.745904</v>
+        <v>1623408.035904</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="9"/>
-        <v>220576.086754001</v>
+        <v>223159.376754001</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="T6" s="2">
         <f t="shared" si="9"/>
-        <v>-1620824.745904</v>
+        <v>-1623408.035904</v>
       </c>
     </row>
     <row r="7" spans="2:20">

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1424,65 +1424,89 @@
         <v>223159.376754001</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
+        <v>45961</v>
+      </c>
       <c r="B6" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3980669.72</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>746.66</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>650053.34</v>
+      </c>
+      <c r="F6" s="2">
+        <v>149508.4</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="8"/>
         <v>3382.11</v>
       </c>
+      <c r="H6" s="2">
+        <v>34077.64</v>
+      </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <v>30695.53</v>
+      </c>
+      <c r="K6" s="2">
+        <v>11</v>
+      </c>
+      <c r="L6" s="3">
+        <v>7.1175</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>242547.6027</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>218475.434775</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>868528.774775</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2979500</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>20500</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4223217.3227</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1264217.3227</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="9"/>
-        <v>-1623408.035904</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
+        <v>-359190.713204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="8"/>
@@ -1505,7 +1529,7 @@
       </c>
       <c r="O7" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="5"/>
@@ -1517,20 +1541,20 @@
       </c>
       <c r="T7" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20">
+        <v>-1264217.3227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="B8" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="8"/>
@@ -1553,7 +1577,7 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="5"/>
@@ -1568,17 +1592,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="1:20">
       <c r="B9" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="8"/>
@@ -1601,7 +1625,7 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="5"/>
@@ -1616,17 +1640,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="1:20">
       <c r="B10" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
@@ -1649,7 +1673,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="5"/>
@@ -1664,17 +1688,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="1:20">
       <c r="B11" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="8"/>
@@ -1697,7 +1721,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="5"/>
@@ -1712,17 +1736,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="1:20">
       <c r="B12" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="8"/>
@@ -1745,7 +1769,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="5"/>
@@ -1760,17 +1784,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="1:20">
       <c r="B13" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="8"/>
@@ -1793,7 +1817,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="5"/>
@@ -1808,17 +1832,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="1:20">
       <c r="B14" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="8"/>
@@ -1841,7 +1865,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="5"/>
@@ -1856,17 +1880,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="1:20">
       <c r="B15" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="8"/>
@@ -1889,7 +1913,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="5"/>
@@ -1904,17 +1928,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="1:20">
       <c r="B16" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="8"/>
@@ -1937,7 +1961,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="5"/>
@@ -1955,14 +1979,14 @@
     <row r="17" spans="2:20">
       <c r="B17" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="8"/>
@@ -1985,7 +2009,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="5"/>
@@ -2003,14 +2027,14 @@
     <row r="18" spans="2:20">
       <c r="B18" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="8"/>
@@ -2033,7 +2057,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="5"/>
@@ -2051,14 +2075,14 @@
     <row r="19" spans="2:20">
       <c r="B19" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="8"/>
@@ -2081,7 +2105,7 @@
       </c>
       <c r="O19" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="5"/>
@@ -2099,14 +2123,14 @@
     <row r="20" spans="2:20">
       <c r="B20" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="8"/>
@@ -2129,7 +2153,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="5"/>
@@ -2147,14 +2171,14 @@
     <row r="21" spans="2:20">
       <c r="B21" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="8"/>
@@ -2177,7 +2201,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
@@ -2195,14 +2219,14 @@
     <row r="22" spans="2:20">
       <c r="B22" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="8"/>
@@ -2225,7 +2249,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="5"/>
@@ -2243,14 +2267,14 @@
     <row r="23" spans="2:20">
       <c r="B23" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
@@ -2273,7 +2297,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="5"/>
@@ -2291,14 +2315,14 @@
     <row r="24" spans="2:20">
       <c r="B24" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="8"/>
@@ -2321,7 +2345,7 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="5"/>
@@ -2339,14 +2363,14 @@
     <row r="25" spans="2:20">
       <c r="B25" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="8"/>
@@ -2369,7 +2393,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
@@ -2387,14 +2411,14 @@
     <row r="26" spans="2:20">
       <c r="B26" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="8"/>
@@ -2417,7 +2441,7 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="5"/>
@@ -2435,14 +2459,14 @@
     <row r="27" spans="2:20">
       <c r="B27" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="8"/>
@@ -2465,7 +2489,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="5"/>
@@ -2483,14 +2507,14 @@
     <row r="28" spans="2:20">
       <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="8"/>
@@ -2513,7 +2537,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="5"/>
@@ -2531,14 +2555,14 @@
     <row r="29" spans="2:20">
       <c r="B29" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="8"/>
@@ -2561,7 +2585,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="5"/>
@@ -2579,14 +2603,14 @@
     <row r="30" spans="2:20">
       <c r="B30" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
@@ -2609,7 +2633,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="5"/>
@@ -2627,14 +2651,14 @@
     <row r="31" spans="2:20">
       <c r="B31" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="8"/>
@@ -2657,7 +2681,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="5"/>
@@ -2675,14 +2699,14 @@
     <row r="32" spans="2:20">
       <c r="B32" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="8"/>
@@ -2705,7 +2729,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="5"/>
@@ -2723,14 +2747,14 @@
     <row r="33" spans="2:20">
       <c r="B33" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="8"/>
@@ -2753,7 +2777,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="5"/>
@@ -2771,14 +2795,14 @@
     <row r="34" spans="2:20">
       <c r="B34" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="8"/>
@@ -2801,7 +2825,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="5"/>
@@ -2819,14 +2843,14 @@
     <row r="35" spans="2:20">
       <c r="B35" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
@@ -2849,7 +2873,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="5"/>
@@ -2867,14 +2891,14 @@
     <row r="36" spans="2:20">
       <c r="B36" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
@@ -2897,7 +2921,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="5"/>
@@ -2915,14 +2939,14 @@
     <row r="37" spans="2:20">
       <c r="B37" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
@@ -2945,7 +2969,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="5"/>
@@ -2963,14 +2987,14 @@
     <row r="38" spans="2:20">
       <c r="B38" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
@@ -2993,7 +3017,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="5"/>
@@ -3011,14 +3035,14 @@
     <row r="39" spans="2:20">
       <c r="B39" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="8"/>
@@ -3041,7 +3065,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="5"/>
@@ -3059,14 +3083,14 @@
     <row r="40" spans="2:20">
       <c r="B40" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="8"/>
@@ -3089,7 +3113,7 @@
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="5"/>
@@ -3107,14 +3131,14 @@
     <row r="41" spans="2:20">
       <c r="B41" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="8"/>
@@ -3137,7 +3161,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="5"/>
@@ -3155,14 +3179,14 @@
     <row r="42" spans="2:20">
       <c r="B42" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="8"/>
@@ -3185,7 +3209,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="5"/>
@@ -3203,14 +3227,14 @@
     <row r="43" spans="2:20">
       <c r="B43" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="8"/>
@@ -3233,7 +3257,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="5"/>
@@ -3251,14 +3275,14 @@
     <row r="44" spans="2:20">
       <c r="B44" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3330616.38</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="8"/>
@@ -3281,7 +3305,7 @@
       </c>
       <c r="O44" s="2">
         <f t="shared" si="4"/>
-        <v>-3329869.72</v>
+        <v>-3330616.38</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="5"/>
@@ -3306,13 +3330,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2"/>
@@ -3399,6 +3423,26 @@
       </c>
       <c r="F4" s="2">
         <v>20300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-220000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-2407500</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-52000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-300000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20500</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1054,8 +1054,8 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1497,64 +1497,88 @@
       </c>
     </row>
     <row r="7" spans="1:20">
+      <c r="A7" s="1">
+        <v>45989</v>
+      </c>
       <c r="B7" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3760063.26</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>771.56</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>428675.319999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>150279.96</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="8"/>
         <v>3382.11</v>
       </c>
+      <c r="H7" s="2">
+        <v>34057.38</v>
+      </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <v>30675.27</v>
+      </c>
+      <c r="K7" s="2">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3">
+        <v>7.072</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>240853.79136</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>216935.50944</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>645610.829439999</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2979500</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>20600</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4000917.05136</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1042017.05136</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="9"/>
-        <v>-1264217.3227</v>
+        <v>-222200.27134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="B8" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="8"/>
@@ -1577,7 +1601,7 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="5"/>
@@ -1589,20 +1613,20 @@
       </c>
       <c r="T8" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1042017.05136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="8"/>
@@ -1625,7 +1649,7 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="5"/>
@@ -1643,14 +1667,14 @@
     <row r="10" spans="1:20">
       <c r="B10" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
@@ -1673,7 +1697,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="5"/>
@@ -1691,14 +1715,14 @@
     <row r="11" spans="1:20">
       <c r="B11" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="8"/>
@@ -1721,7 +1745,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="5"/>
@@ -1739,14 +1763,14 @@
     <row r="12" spans="1:20">
       <c r="B12" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="8"/>
@@ -1769,7 +1793,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="5"/>
@@ -1787,14 +1811,14 @@
     <row r="13" spans="1:20">
       <c r="B13" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="8"/>
@@ -1817,7 +1841,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="5"/>
@@ -1835,14 +1859,14 @@
     <row r="14" spans="1:20">
       <c r="B14" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="8"/>
@@ -1865,7 +1889,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="5"/>
@@ -1883,14 +1907,14 @@
     <row r="15" spans="1:20">
       <c r="B15" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="8"/>
@@ -1913,7 +1937,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="5"/>
@@ -1931,14 +1955,14 @@
     <row r="16" spans="1:20">
       <c r="B16" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="8"/>
@@ -1961,7 +1985,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="5"/>
@@ -1979,14 +2003,14 @@
     <row r="17" spans="2:20">
       <c r="B17" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="8"/>
@@ -2009,7 +2033,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="5"/>
@@ -2027,14 +2051,14 @@
     <row r="18" spans="2:20">
       <c r="B18" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="8"/>
@@ -2057,7 +2081,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="5"/>
@@ -2075,14 +2099,14 @@
     <row r="19" spans="2:20">
       <c r="B19" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="8"/>
@@ -2105,7 +2129,7 @@
       </c>
       <c r="O19" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="5"/>
@@ -2123,14 +2147,14 @@
     <row r="20" spans="2:20">
       <c r="B20" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="8"/>
@@ -2153,7 +2177,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="5"/>
@@ -2171,14 +2195,14 @@
     <row r="21" spans="2:20">
       <c r="B21" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="8"/>
@@ -2201,7 +2225,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
@@ -2219,14 +2243,14 @@
     <row r="22" spans="2:20">
       <c r="B22" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="8"/>
@@ -2249,7 +2273,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="5"/>
@@ -2267,14 +2291,14 @@
     <row r="23" spans="2:20">
       <c r="B23" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
@@ -2297,7 +2321,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="5"/>
@@ -2315,14 +2339,14 @@
     <row r="24" spans="2:20">
       <c r="B24" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="8"/>
@@ -2345,7 +2369,7 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="5"/>
@@ -2363,14 +2387,14 @@
     <row r="25" spans="2:20">
       <c r="B25" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="8"/>
@@ -2393,7 +2417,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
@@ -2411,14 +2435,14 @@
     <row r="26" spans="2:20">
       <c r="B26" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="8"/>
@@ -2441,7 +2465,7 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="5"/>
@@ -2459,14 +2483,14 @@
     <row r="27" spans="2:20">
       <c r="B27" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="8"/>
@@ -2489,7 +2513,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="5"/>
@@ -2507,14 +2531,14 @@
     <row r="28" spans="2:20">
       <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="8"/>
@@ -2537,7 +2561,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="5"/>
@@ -2555,14 +2579,14 @@
     <row r="29" spans="2:20">
       <c r="B29" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="8"/>
@@ -2585,7 +2609,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="5"/>
@@ -2603,14 +2627,14 @@
     <row r="30" spans="2:20">
       <c r="B30" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
@@ -2633,7 +2657,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="5"/>
@@ -2651,14 +2675,14 @@
     <row r="31" spans="2:20">
       <c r="B31" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="8"/>
@@ -2681,7 +2705,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="5"/>
@@ -2699,14 +2723,14 @@
     <row r="32" spans="2:20">
       <c r="B32" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="8"/>
@@ -2729,7 +2753,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="5"/>
@@ -2747,14 +2771,14 @@
     <row r="33" spans="2:20">
       <c r="B33" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="8"/>
@@ -2777,7 +2801,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="5"/>
@@ -2795,14 +2819,14 @@
     <row r="34" spans="2:20">
       <c r="B34" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="8"/>
@@ -2825,7 +2849,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="5"/>
@@ -2843,14 +2867,14 @@
     <row r="35" spans="2:20">
       <c r="B35" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
@@ -2873,7 +2897,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="5"/>
@@ -2891,14 +2915,14 @@
     <row r="36" spans="2:20">
       <c r="B36" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
@@ -2921,7 +2945,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="5"/>
@@ -2939,14 +2963,14 @@
     <row r="37" spans="2:20">
       <c r="B37" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
@@ -2969,7 +2993,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="5"/>
@@ -2987,14 +3011,14 @@
     <row r="38" spans="2:20">
       <c r="B38" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
@@ -3017,7 +3041,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="5"/>
@@ -3035,14 +3059,14 @@
     <row r="39" spans="2:20">
       <c r="B39" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="8"/>
@@ -3065,7 +3089,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="5"/>
@@ -3083,14 +3107,14 @@
     <row r="40" spans="2:20">
       <c r="B40" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="8"/>
@@ -3113,7 +3137,7 @@
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="5"/>
@@ -3131,14 +3155,14 @@
     <row r="41" spans="2:20">
       <c r="B41" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="8"/>
@@ -3161,7 +3185,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="5"/>
@@ -3179,14 +3203,14 @@
     <row r="42" spans="2:20">
       <c r="B42" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="8"/>
@@ -3209,7 +3233,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="5"/>
@@ -3227,14 +3251,14 @@
     <row r="43" spans="2:20">
       <c r="B43" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="8"/>
@@ -3257,7 +3281,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="5"/>
@@ -3275,14 +3299,14 @@
     <row r="44" spans="2:20">
       <c r="B44" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3331387.94</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="8"/>
@@ -3305,7 +3329,7 @@
       </c>
       <c r="O44" s="2">
         <f t="shared" si="4"/>
-        <v>-3330616.38</v>
+        <v>-3331387.94</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="5"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1054,8 +1054,8 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" si="7"/>
-        <v>3329869.72</v>
+        <v>3347549.72</v>
       </c>
       <c r="C5" s="2">
         <v>4344875.16</v>
       </c>
       <c r="D5" s="2">
-        <v>771.56</v>
+        <v>18451.56</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>1015005.44</v>
+        <v>997325.44</v>
       </c>
       <c r="F5" s="2">
         <v>148761.74</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="O5" s="2">
         <f t="shared" si="4"/>
-        <v>1228625.224448</v>
+        <v>1210945.224448</v>
       </c>
       <c r="P5" s="2">
         <v>2979500</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="7"/>
-        <v>3330616.38</v>
+        <v>3348296.38</v>
       </c>
       <c r="C6" s="2">
         <v>3980669.72</v>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>650053.34</v>
+        <v>632373.34</v>
       </c>
       <c r="F6" s="2">
         <v>149508.4</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="O6" s="2">
         <f t="shared" si="4"/>
-        <v>868528.774775</v>
+        <v>850848.774775</v>
       </c>
       <c r="P6" s="2">
         <v>2979500</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3349067.94</v>
       </c>
       <c r="C7" s="2">
         <v>3760063.26</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>428675.319999999</v>
+        <v>410995.319999999</v>
       </c>
       <c r="F7" s="2">
         <v>150279.96</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="O7" s="2">
         <f t="shared" si="4"/>
-        <v>645610.829439999</v>
+        <v>627930.829439999</v>
       </c>
       <c r="P7" s="2">
         <v>2979500</v>
@@ -1569,64 +1569,88 @@
       </c>
     </row>
     <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>46022</v>
+      </c>
       <c r="B8" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3829435.02</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>19095.66</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>461271.419999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>151026.62</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="8"/>
         <v>3382.11</v>
       </c>
+      <c r="H8" s="2">
+        <v>34347.83</v>
+      </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <v>30965.72</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6.9866</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>239974.549078</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>216345.099352</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>677616.519352</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2979500</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>20600</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4069409.569078</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1110509.569078</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="9"/>
-        <v>-1042017.05136</v>
+        <v>68492.5177180003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="8"/>
@@ -1649,7 +1673,7 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="5"/>
@@ -1661,20 +1685,20 @@
       </c>
       <c r="T9" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1110509.569078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
@@ -1697,7 +1721,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="5"/>
@@ -1715,14 +1739,14 @@
     <row r="11" spans="1:20">
       <c r="B11" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="8"/>
@@ -1745,7 +1769,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="5"/>
@@ -1763,14 +1787,14 @@
     <row r="12" spans="1:20">
       <c r="B12" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="8"/>
@@ -1793,7 +1817,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="5"/>
@@ -1811,14 +1835,14 @@
     <row r="13" spans="1:20">
       <c r="B13" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="8"/>
@@ -1841,7 +1865,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="5"/>
@@ -1859,14 +1883,14 @@
     <row r="14" spans="1:20">
       <c r="B14" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="8"/>
@@ -1889,7 +1913,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="5"/>
@@ -1907,14 +1931,14 @@
     <row r="15" spans="1:20">
       <c r="B15" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="8"/>
@@ -1937,7 +1961,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="5"/>
@@ -1955,14 +1979,14 @@
     <row r="16" spans="1:20">
       <c r="B16" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="8"/>
@@ -1985,7 +2009,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="5"/>
@@ -2003,14 +2027,14 @@
     <row r="17" spans="2:20">
       <c r="B17" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="8"/>
@@ -2033,7 +2057,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="5"/>
@@ -2051,14 +2075,14 @@
     <row r="18" spans="2:20">
       <c r="B18" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="8"/>
@@ -2081,7 +2105,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="5"/>
@@ -2099,14 +2123,14 @@
     <row r="19" spans="2:20">
       <c r="B19" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="8"/>
@@ -2129,7 +2153,7 @@
       </c>
       <c r="O19" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="5"/>
@@ -2147,14 +2171,14 @@
     <row r="20" spans="2:20">
       <c r="B20" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="8"/>
@@ -2177,7 +2201,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="5"/>
@@ -2195,14 +2219,14 @@
     <row r="21" spans="2:20">
       <c r="B21" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="8"/>
@@ -2225,7 +2249,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
@@ -2243,14 +2267,14 @@
     <row r="22" spans="2:20">
       <c r="B22" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="8"/>
@@ -2273,7 +2297,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="5"/>
@@ -2291,14 +2315,14 @@
     <row r="23" spans="2:20">
       <c r="B23" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
@@ -2321,7 +2345,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="5"/>
@@ -2339,14 +2363,14 @@
     <row r="24" spans="2:20">
       <c r="B24" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="8"/>
@@ -2369,7 +2393,7 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="5"/>
@@ -2387,14 +2411,14 @@
     <row r="25" spans="2:20">
       <c r="B25" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="8"/>
@@ -2417,7 +2441,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
@@ -2435,14 +2459,14 @@
     <row r="26" spans="2:20">
       <c r="B26" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="8"/>
@@ -2465,7 +2489,7 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="5"/>
@@ -2483,14 +2507,14 @@
     <row r="27" spans="2:20">
       <c r="B27" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="8"/>
@@ -2513,7 +2537,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="5"/>
@@ -2531,14 +2555,14 @@
     <row r="28" spans="2:20">
       <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="8"/>
@@ -2561,7 +2585,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="5"/>
@@ -2579,14 +2603,14 @@
     <row r="29" spans="2:20">
       <c r="B29" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="8"/>
@@ -2609,7 +2633,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="5"/>
@@ -2627,14 +2651,14 @@
     <row r="30" spans="2:20">
       <c r="B30" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
@@ -2657,7 +2681,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="5"/>
@@ -2675,14 +2699,14 @@
     <row r="31" spans="2:20">
       <c r="B31" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="8"/>
@@ -2705,7 +2729,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="5"/>
@@ -2723,14 +2747,14 @@
     <row r="32" spans="2:20">
       <c r="B32" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="8"/>
@@ -2753,7 +2777,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="5"/>
@@ -2771,14 +2795,14 @@
     <row r="33" spans="2:20">
       <c r="B33" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="8"/>
@@ -2801,7 +2825,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="5"/>
@@ -2819,14 +2843,14 @@
     <row r="34" spans="2:20">
       <c r="B34" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="8"/>
@@ -2849,7 +2873,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="5"/>
@@ -2867,14 +2891,14 @@
     <row r="35" spans="2:20">
       <c r="B35" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
@@ -2897,7 +2921,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="5"/>
@@ -2915,14 +2939,14 @@
     <row r="36" spans="2:20">
       <c r="B36" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
@@ -2945,7 +2969,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="5"/>
@@ -2963,14 +2987,14 @@
     <row r="37" spans="2:20">
       <c r="B37" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
@@ -2993,7 +3017,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="5"/>
@@ -3011,14 +3035,14 @@
     <row r="38" spans="2:20">
       <c r="B38" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
@@ -3041,7 +3065,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="5"/>
@@ -3059,14 +3083,14 @@
     <row r="39" spans="2:20">
       <c r="B39" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="8"/>
@@ -3089,7 +3113,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="5"/>
@@ -3107,14 +3131,14 @@
     <row r="40" spans="2:20">
       <c r="B40" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="8"/>
@@ -3137,7 +3161,7 @@
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="5"/>
@@ -3155,14 +3179,14 @@
     <row r="41" spans="2:20">
       <c r="B41" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="8"/>
@@ -3185,7 +3209,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="5"/>
@@ -3203,14 +3227,14 @@
     <row r="42" spans="2:20">
       <c r="B42" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="8"/>
@@ -3233,7 +3257,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="5"/>
@@ -3251,14 +3275,14 @@
     <row r="43" spans="2:20">
       <c r="B43" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="8"/>
@@ -3281,7 +3305,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="5"/>
@@ -3299,14 +3323,14 @@
     <row r="44" spans="2:20">
       <c r="B44" s="2">
         <f t="shared" si="7"/>
-        <v>3331387.94</v>
+        <v>3368163.6</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="8"/>
@@ -3329,7 +3353,7 @@
       </c>
       <c r="O44" s="2">
         <f t="shared" si="4"/>
-        <v>-3331387.94</v>
+        <v>-3368163.6</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="5"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1054,8 +1054,8 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1641,64 +1641,88 @@
       </c>
     </row>
     <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>46052</v>
+      </c>
       <c r="B9" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4131880.62</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>771.56</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>762945.459999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>151026.62</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="8"/>
         <v>3382.11</v>
       </c>
+      <c r="H9" s="2">
+        <v>39438.32</v>
+      </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <v>36056.21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>11</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6.9484</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>274033.222688</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>250532.969564</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>1013478.429564</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2979500</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>20600</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4405913.842688</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1447013.842688</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="9"/>
-        <v>-1110509.569078</v>
+        <v>336504.27361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
@@ -1721,7 +1745,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="5"/>
@@ -1733,20 +1757,20 @@
       </c>
       <c r="T10" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1447013.842688</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="B11" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="8"/>
@@ -1769,7 +1793,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="5"/>
@@ -1787,14 +1811,14 @@
     <row r="12" spans="1:20">
       <c r="B12" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="8"/>
@@ -1817,7 +1841,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="5"/>
@@ -1835,14 +1859,14 @@
     <row r="13" spans="1:20">
       <c r="B13" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="8"/>
@@ -1865,7 +1889,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="5"/>
@@ -1883,14 +1907,14 @@
     <row r="14" spans="1:20">
       <c r="B14" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="8"/>
@@ -1913,7 +1937,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="5"/>
@@ -1931,14 +1955,14 @@
     <row r="15" spans="1:20">
       <c r="B15" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="8"/>
@@ -1961,7 +1985,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="5"/>
@@ -1979,14 +2003,14 @@
     <row r="16" spans="1:20">
       <c r="B16" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="8"/>
@@ -2009,7 +2033,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="5"/>
@@ -2027,14 +2051,14 @@
     <row r="17" spans="2:20">
       <c r="B17" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="8"/>
@@ -2057,7 +2081,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="5"/>
@@ -2075,14 +2099,14 @@
     <row r="18" spans="2:20">
       <c r="B18" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="8"/>
@@ -2105,7 +2129,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="5"/>
@@ -2123,14 +2147,14 @@
     <row r="19" spans="2:20">
       <c r="B19" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="8"/>
@@ -2153,7 +2177,7 @@
       </c>
       <c r="O19" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="5"/>
@@ -2171,14 +2195,14 @@
     <row r="20" spans="2:20">
       <c r="B20" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="8"/>
@@ -2201,7 +2225,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="5"/>
@@ -2219,14 +2243,14 @@
     <row r="21" spans="2:20">
       <c r="B21" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="8"/>
@@ -2249,7 +2273,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
@@ -2267,14 +2291,14 @@
     <row r="22" spans="2:20">
       <c r="B22" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="8"/>
@@ -2297,7 +2321,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="5"/>
@@ -2315,14 +2339,14 @@
     <row r="23" spans="2:20">
       <c r="B23" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
@@ -2345,7 +2369,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="5"/>
@@ -2363,14 +2387,14 @@
     <row r="24" spans="2:20">
       <c r="B24" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="8"/>
@@ -2393,7 +2417,7 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="5"/>
@@ -2411,14 +2435,14 @@
     <row r="25" spans="2:20">
       <c r="B25" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="8"/>
@@ -2441,7 +2465,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
@@ -2459,14 +2483,14 @@
     <row r="26" spans="2:20">
       <c r="B26" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="8"/>
@@ -2489,7 +2513,7 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="5"/>
@@ -2507,14 +2531,14 @@
     <row r="27" spans="2:20">
       <c r="B27" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="8"/>
@@ -2537,7 +2561,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="5"/>
@@ -2555,14 +2579,14 @@
     <row r="28" spans="2:20">
       <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="8"/>
@@ -2585,7 +2609,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="5"/>
@@ -2603,14 +2627,14 @@
     <row r="29" spans="2:20">
       <c r="B29" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="8"/>
@@ -2633,7 +2657,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="5"/>
@@ -2651,14 +2675,14 @@
     <row r="30" spans="2:20">
       <c r="B30" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
@@ -2681,7 +2705,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="5"/>
@@ -2699,14 +2723,14 @@
     <row r="31" spans="2:20">
       <c r="B31" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="8"/>
@@ -2729,7 +2753,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="5"/>
@@ -2747,14 +2771,14 @@
     <row r="32" spans="2:20">
       <c r="B32" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="8"/>
@@ -2777,7 +2801,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="5"/>
@@ -2795,14 +2819,14 @@
     <row r="33" spans="2:20">
       <c r="B33" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="8"/>
@@ -2825,7 +2849,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="5"/>
@@ -2843,14 +2867,14 @@
     <row r="34" spans="2:20">
       <c r="B34" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="8"/>
@@ -2873,7 +2897,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="5"/>
@@ -2891,14 +2915,14 @@
     <row r="35" spans="2:20">
       <c r="B35" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
@@ -2921,7 +2945,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="5"/>
@@ -2939,14 +2963,14 @@
     <row r="36" spans="2:20">
       <c r="B36" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
@@ -2969,7 +2993,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="5"/>
@@ -2987,14 +3011,14 @@
     <row r="37" spans="2:20">
       <c r="B37" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
@@ -3017,7 +3041,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="5"/>
@@ -3035,14 +3059,14 @@
     <row r="38" spans="2:20">
       <c r="B38" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
@@ -3065,7 +3089,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="5"/>
@@ -3083,14 +3107,14 @@
     <row r="39" spans="2:20">
       <c r="B39" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="8"/>
@@ -3113,7 +3137,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="5"/>
@@ -3131,14 +3155,14 @@
     <row r="40" spans="2:20">
       <c r="B40" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="8"/>
@@ -3161,7 +3185,7 @@
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="5"/>
@@ -3179,14 +3203,14 @@
     <row r="41" spans="2:20">
       <c r="B41" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="8"/>
@@ -3209,7 +3233,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="5"/>
@@ -3227,14 +3251,14 @@
     <row r="42" spans="2:20">
       <c r="B42" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="8"/>
@@ -3257,7 +3281,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="5"/>
@@ -3275,14 +3299,14 @@
     <row r="43" spans="2:20">
       <c r="B43" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="8"/>
@@ -3305,7 +3329,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="5"/>
@@ -3323,14 +3347,14 @@
     <row r="44" spans="2:20">
       <c r="B44" s="2">
         <f t="shared" si="7"/>
-        <v>3368163.6</v>
+        <v>3368935.16</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="8"/>
@@ -3353,7 +3377,7 @@
       </c>
       <c r="O44" s="2">
         <f t="shared" si="4"/>
-        <v>-3368163.6</v>
+        <v>-3368935.16</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="5"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1054,8 +1054,8 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="C9" s="2">
         <v>4131880.62</v>
       </c>
       <c r="D9" s="2">
-        <v>771.56</v>
+        <v>928.56</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>762945.459999999</v>
+        <v>762788.459999999</v>
       </c>
       <c r="F9" s="2">
         <v>151026.62</v>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>1013478.429564</v>
+        <v>1013321.429564</v>
       </c>
       <c r="P9" s="2">
         <v>2979500</v>
@@ -1715,14 +1715,14 @@
     <row r="10" spans="1:20">
       <c r="B10" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="5"/>
@@ -1763,14 +1763,14 @@
     <row r="11" spans="1:20">
       <c r="B11" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="8"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="5"/>
@@ -1811,14 +1811,14 @@
     <row r="12" spans="1:20">
       <c r="B12" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="8"/>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="5"/>
@@ -1859,14 +1859,14 @@
     <row r="13" spans="1:20">
       <c r="B13" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="8"/>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="5"/>
@@ -1907,14 +1907,14 @@
     <row r="14" spans="1:20">
       <c r="B14" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="8"/>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="5"/>
@@ -1955,14 +1955,14 @@
     <row r="15" spans="1:20">
       <c r="B15" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="8"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="5"/>
@@ -2003,14 +2003,14 @@
     <row r="16" spans="1:20">
       <c r="B16" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="8"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="5"/>
@@ -2051,14 +2051,14 @@
     <row r="17" spans="2:20">
       <c r="B17" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="8"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="5"/>
@@ -2099,14 +2099,14 @@
     <row r="18" spans="2:20">
       <c r="B18" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="8"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="5"/>
@@ -2147,14 +2147,14 @@
     <row r="19" spans="2:20">
       <c r="B19" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="8"/>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="O19" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="5"/>
@@ -2195,14 +2195,14 @@
     <row r="20" spans="2:20">
       <c r="B20" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="8"/>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="5"/>
@@ -2243,14 +2243,14 @@
     <row r="21" spans="2:20">
       <c r="B21" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="8"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
@@ -2291,14 +2291,14 @@
     <row r="22" spans="2:20">
       <c r="B22" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="8"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="5"/>
@@ -2339,14 +2339,14 @@
     <row r="23" spans="2:20">
       <c r="B23" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="5"/>
@@ -2387,14 +2387,14 @@
     <row r="24" spans="2:20">
       <c r="B24" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="8"/>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="5"/>
@@ -2435,14 +2435,14 @@
     <row r="25" spans="2:20">
       <c r="B25" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="8"/>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
@@ -2483,14 +2483,14 @@
     <row r="26" spans="2:20">
       <c r="B26" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="8"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="5"/>
@@ -2531,14 +2531,14 @@
     <row r="27" spans="2:20">
       <c r="B27" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="8"/>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="5"/>
@@ -2579,14 +2579,14 @@
     <row r="28" spans="2:20">
       <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="8"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="5"/>
@@ -2627,14 +2627,14 @@
     <row r="29" spans="2:20">
       <c r="B29" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="8"/>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="5"/>
@@ -2675,14 +2675,14 @@
     <row r="30" spans="2:20">
       <c r="B30" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="5"/>
@@ -2723,14 +2723,14 @@
     <row r="31" spans="2:20">
       <c r="B31" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="8"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="5"/>
@@ -2771,14 +2771,14 @@
     <row r="32" spans="2:20">
       <c r="B32" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="8"/>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="5"/>
@@ -2819,14 +2819,14 @@
     <row r="33" spans="2:20">
       <c r="B33" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="8"/>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="5"/>
@@ -2867,14 +2867,14 @@
     <row r="34" spans="2:20">
       <c r="B34" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="8"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="5"/>
@@ -2915,14 +2915,14 @@
     <row r="35" spans="2:20">
       <c r="B35" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="5"/>
@@ -2963,14 +2963,14 @@
     <row r="36" spans="2:20">
       <c r="B36" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="5"/>
@@ -3011,14 +3011,14 @@
     <row r="37" spans="2:20">
       <c r="B37" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="5"/>
@@ -3059,14 +3059,14 @@
     <row r="38" spans="2:20">
       <c r="B38" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="5"/>
@@ -3107,14 +3107,14 @@
     <row r="39" spans="2:20">
       <c r="B39" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="8"/>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="5"/>
@@ -3155,14 +3155,14 @@
     <row r="40" spans="2:20">
       <c r="B40" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="8"/>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="5"/>
@@ -3203,14 +3203,14 @@
     <row r="41" spans="2:20">
       <c r="B41" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="8"/>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="5"/>
@@ -3251,14 +3251,14 @@
     <row r="42" spans="2:20">
       <c r="B42" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="8"/>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="5"/>
@@ -3299,14 +3299,14 @@
     <row r="43" spans="2:20">
       <c r="B43" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="8"/>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="5"/>
@@ -3347,14 +3347,14 @@
     <row r="44" spans="2:20">
       <c r="B44" s="2">
         <f t="shared" si="7"/>
-        <v>3368935.16</v>
+        <v>3369092.16</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="8"/>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="O44" s="2">
         <f t="shared" si="4"/>
-        <v>-3368935.16</v>
+        <v>-3369092.16</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="5"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1713,64 +1713,88 @@
       </c>
     </row>
     <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>46080</v>
+      </c>
       <c r="B10" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4272979.58</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>33928.56</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>869958.859999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>151026.62</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="8"/>
         <v>3382.11</v>
       </c>
+      <c r="H10" s="2">
+        <v>38303.67</v>
+      </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
-        <v>-3382.11</v>
+        <v>34921.56</v>
+      </c>
+      <c r="K10" s="2">
+        <v>11</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.8539</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>262529.523813</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>239348.880084</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>1109307.740084</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2989500</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>20900</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4535509.103813</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1566909.103813</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="9"/>
-        <v>-1447013.842688</v>
+        <v>119895.261125</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="B11" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="8"/>
@@ -1793,7 +1817,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="5"/>
@@ -1805,20 +1829,20 @@
       </c>
       <c r="T11" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1566909.103813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="B12" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="8"/>
@@ -1841,7 +1865,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="5"/>
@@ -1859,14 +1883,14 @@
     <row r="13" spans="1:20">
       <c r="B13" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="8"/>
@@ -1889,7 +1913,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="5"/>
@@ -1907,14 +1931,14 @@
     <row r="14" spans="1:20">
       <c r="B14" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="8"/>
@@ -1937,7 +1961,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="5"/>
@@ -1955,14 +1979,14 @@
     <row r="15" spans="1:20">
       <c r="B15" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="8"/>
@@ -1985,7 +2009,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="5"/>
@@ -2003,14 +2027,14 @@
     <row r="16" spans="1:20">
       <c r="B16" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="8"/>
@@ -2033,7 +2057,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="5"/>
@@ -2051,14 +2075,14 @@
     <row r="17" spans="2:20">
       <c r="B17" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="8"/>
@@ -2081,7 +2105,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="5"/>
@@ -2099,14 +2123,14 @@
     <row r="18" spans="2:20">
       <c r="B18" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="8"/>
@@ -2129,7 +2153,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="5"/>
@@ -2147,14 +2171,14 @@
     <row r="19" spans="2:20">
       <c r="B19" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="8"/>
@@ -2177,7 +2201,7 @@
       </c>
       <c r="O19" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="5"/>
@@ -2195,14 +2219,14 @@
     <row r="20" spans="2:20">
       <c r="B20" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="8"/>
@@ -2225,7 +2249,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="5"/>
@@ -2243,14 +2267,14 @@
     <row r="21" spans="2:20">
       <c r="B21" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="8"/>
@@ -2273,7 +2297,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
@@ -2291,14 +2315,14 @@
     <row r="22" spans="2:20">
       <c r="B22" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="8"/>
@@ -2321,7 +2345,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="5"/>
@@ -2339,14 +2363,14 @@
     <row r="23" spans="2:20">
       <c r="B23" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
@@ -2369,7 +2393,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="5"/>
@@ -2387,14 +2411,14 @@
     <row r="24" spans="2:20">
       <c r="B24" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="8"/>
@@ -2417,7 +2441,7 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="5"/>
@@ -2435,14 +2459,14 @@
     <row r="25" spans="2:20">
       <c r="B25" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="8"/>
@@ -2465,7 +2489,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
@@ -2483,14 +2507,14 @@
     <row r="26" spans="2:20">
       <c r="B26" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="8"/>
@@ -2513,7 +2537,7 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="5"/>
@@ -2531,14 +2555,14 @@
     <row r="27" spans="2:20">
       <c r="B27" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="8"/>
@@ -2561,7 +2585,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="5"/>
@@ -2579,14 +2603,14 @@
     <row r="28" spans="2:20">
       <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="8"/>
@@ -2609,7 +2633,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="5"/>
@@ -2627,14 +2651,14 @@
     <row r="29" spans="2:20">
       <c r="B29" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="8"/>
@@ -2657,7 +2681,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="5"/>
@@ -2675,14 +2699,14 @@
     <row r="30" spans="2:20">
       <c r="B30" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
@@ -2705,7 +2729,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="5"/>
@@ -2723,14 +2747,14 @@
     <row r="31" spans="2:20">
       <c r="B31" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="8"/>
@@ -2753,7 +2777,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="5"/>
@@ -2771,14 +2795,14 @@
     <row r="32" spans="2:20">
       <c r="B32" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="8"/>
@@ -2801,7 +2825,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="5"/>
@@ -2819,14 +2843,14 @@
     <row r="33" spans="2:20">
       <c r="B33" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="8"/>
@@ -2849,7 +2873,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="5"/>
@@ -2867,14 +2891,14 @@
     <row r="34" spans="2:20">
       <c r="B34" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="8"/>
@@ -2897,7 +2921,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="5"/>
@@ -2915,14 +2939,14 @@
     <row r="35" spans="2:20">
       <c r="B35" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
@@ -2945,7 +2969,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="5"/>
@@ -2963,14 +2987,14 @@
     <row r="36" spans="2:20">
       <c r="B36" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
@@ -2993,7 +3017,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="5"/>
@@ -3011,14 +3035,14 @@
     <row r="37" spans="2:20">
       <c r="B37" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
@@ -3041,7 +3065,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="5"/>
@@ -3059,14 +3083,14 @@
     <row r="38" spans="2:20">
       <c r="B38" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
@@ -3089,7 +3113,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="5"/>
@@ -3107,14 +3131,14 @@
     <row r="39" spans="2:20">
       <c r="B39" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="8"/>
@@ -3137,7 +3161,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="5"/>
@@ -3155,14 +3179,14 @@
     <row r="40" spans="2:20">
       <c r="B40" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="8"/>
@@ -3185,7 +3209,7 @@
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="5"/>
@@ -3203,14 +3227,14 @@
     <row r="41" spans="2:20">
       <c r="B41" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="8"/>
@@ -3233,7 +3257,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="5"/>
@@ -3251,14 +3275,14 @@
     <row r="42" spans="2:20">
       <c r="B42" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="8"/>
@@ -3281,7 +3305,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="5"/>
@@ -3299,14 +3323,14 @@
     <row r="43" spans="2:20">
       <c r="B43" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="8"/>
@@ -3329,7 +3353,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="5"/>
@@ -3347,14 +3371,14 @@
     <row r="44" spans="2:20">
       <c r="B44" s="2">
         <f t="shared" si="7"/>
-        <v>3369092.16</v>
+        <v>3403020.72</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="8"/>
@@ -3377,7 +3401,7 @@
       </c>
       <c r="O44" s="2">
         <f t="shared" si="4"/>
-        <v>-3369092.16</v>
+        <v>-3403020.72</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="5"/>
@@ -3402,13 +3426,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2"/>
@@ -3515,6 +3539,26 @@
       </c>
       <c r="F5" s="2">
         <v>20500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>46080</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-220000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-2407500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-82000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-280000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20900</v>
       </c>
     </row>
   </sheetData>
